--- a/xls/grades.xlsx
+++ b/xls/grades.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>total_grade</t>
+          <t>final_grade</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
